--- a/monthly_total_Fuel_wise_gen_dem_LS_MWh.xlsx
+++ b/monthly_total_Fuel_wise_gen_dem_LS_MWh.xlsx
@@ -465,25 +465,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>447697</v>
+        <v>1251770</v>
       </c>
       <c r="D2">
-        <v>447697</v>
+        <v>1251710</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>220348</v>
+        <v>856644</v>
       </c>
       <c r="G2">
-        <v>60707</v>
+        <v>130454</v>
       </c>
       <c r="H2">
-        <v>8595</v>
+        <v>33596</v>
       </c>
       <c r="I2">
-        <v>2375</v>
+        <v>7843</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30040</v>
+        <v>98247</v>
       </c>
       <c r="M2">
         <v>0</v>
